--- a/data/air_info/巴黎-柏林.xlsx
+++ b/data/air_info/巴黎-柏林.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75400FB4-9914-4701-A307-3567806F6027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588A112-0AD7-4BD9-B27A-7807E7400C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,21 +33,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
-    <t>行程时间：1 小时 40 分钟</t>
-  </si>
-  <si>
     <t>法航经济舱Airbus A320AF 1434</t>
   </si>
   <si>
-    <t>行程时间：1 小时 45 分钟</t>
-  </si>
-  <si>
     <t>法航经济舱Airbus A220-300 PassengerAF 1734</t>
   </si>
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>易捷航空经济舱Airbus A320U2 4633</t>
   </si>
   <si>
@@ -84,20 +75,32 @@
     <t>出发机场</t>
   </si>
   <si>
+    <t>抵达时间</t>
+  </si>
+  <si>
+    <t>抵达机场</t>
+  </si>
+  <si>
+    <t>航空信息</t>
+  </si>
+  <si>
+    <t>1 小时 40 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>行程时间</t>
-  </si>
-  <si>
-    <t>抵达时间</t>
-  </si>
-  <si>
-    <t>抵达机场</t>
-  </si>
-  <si>
-    <t>航空信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 45 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -464,30 +467,29 @@
     <col min="4" max="4" width="13.81640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.6328125" customWidth="1"/>
     <col min="6" max="6" width="52.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" customWidth="1"/>
     <col min="10" max="10" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>21</v>
@@ -498,23 +500,22 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>0.37152777777777779</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(1500,2500)</f>
-        <v>2215</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,23 +523,22 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>0.46875</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" ca="1" si="0">RANDBETWEEN(1500,2500)</f>
-        <v>1706</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -546,23 +546,22 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>0.56944444444444442</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,23 +569,22 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>0.61458333333333337</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1688</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,23 +592,22 @@
         <v>0.64236111111111116</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>0.71180555555555558</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2443</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,23 +615,22 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>0.75347222222222221</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2181</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -642,23 +638,22 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>0.89930555555555558</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1958</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,23 +661,22 @@
         <v>0.86805555555555558</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>0.94097222222222221</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1953</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,23 +684,22 @@
         <v>0.875</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>0.94791666666666663</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2025</v>
+        <v>1566</v>
       </c>
     </row>
   </sheetData>
